--- a/Neural_Network_TEST_20191031/mathtype6.9b_trial/mathtype_Neural_Network.xlsx
+++ b/Neural_Network_TEST_20191031/mathtype6.9b_trial/mathtype_Neural_Network.xlsx
@@ -354,9 +354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
